--- a/revisedOsdv.xlsx
+++ b/revisedOsdv.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="732">
   <si>
     <t>QuestionID</t>
   </si>
@@ -41,55 +41,13 @@
     <t>SubCategory</t>
   </si>
   <si>
-    <t>section</t>
-  </si>
-  <si>
-    <t>### Select Section</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>### Choose District</t>
-  </si>
-  <si>
-    <t>facility</t>
-  </si>
-  <si>
-    <t>### Choose Facility</t>
-  </si>
-  <si>
-    <t>startingMonth</t>
-  </si>
-  <si>
-    <t>### Starting Month</t>
-  </si>
-  <si>
-    <t>startingYear</t>
-  </si>
-  <si>
-    <t>### Starting Year</t>
-  </si>
-  <si>
-    <t>endingMonth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">### Ending Month </t>
-  </si>
-  <si>
-    <t>endingYear</t>
-  </si>
-  <si>
-    <t>### Ending Year</t>
-  </si>
-  <si>
     <t>clientSpaceSize</t>
   </si>
   <si>
     <t>Are space and client flow arranged to allow all steps to take place simultaneously without disrupting each other or affecting privacy?</t>
   </si>
   <si>
-    <t xml:space="preserve">A. Facilities Supplies, Emerg </t>
+    <t xml:space="preserve">Facilities Supplies, Emergency </t>
   </si>
   <si>
     <t>Operation Theatre and Recovery Room</t>
@@ -260,9 +218,6 @@
     <t>Indicate whether each type of kit is being used at this site?</t>
   </si>
   <si>
-    <t xml:space="preserve">Facilities Supplies, Emergency </t>
-  </si>
-  <si>
     <t>otherKit</t>
   </si>
   <si>
@@ -311,6 +266,9 @@
     <t>HTS Room(s) – Is there visual and auditory privacy (other clients will not see testing; no client traffic through room; screens or partitions are acceptable)?</t>
   </si>
   <si>
+    <t>Facilities Supplies -&gt; HTS Safety  &amp; STI and Condom Program</t>
+  </si>
+  <si>
     <t>htsContainers</t>
   </si>
   <si>
@@ -380,15 +338,15 @@
     <t>htsandSTIComment</t>
   </si>
   <si>
+    <t>medicinesTemperature</t>
+  </si>
+  <si>
+    <t>Medicines - Are these stored in a temperature-controlled (shaded, ventilated) or monitored (thermometer, temperature log) environment?</t>
+  </si>
+  <si>
     <t>Medicines</t>
   </si>
   <si>
-    <t>medicinesTemperature</t>
-  </si>
-  <si>
-    <t>Medicines - Are these stored in a temperature-controlled (shaded, ventilated) or monitored (thermometer, temperature log) environment?</t>
-  </si>
-  <si>
     <t>stiMedicines</t>
   </si>
   <si>
@@ -473,27 +431,27 @@
     <t>Are all the medicines within the shelf life?</t>
   </si>
   <si>
+    <t>documentationofMedicationsDispensed</t>
+  </si>
+  <si>
+    <t>Is there documentation of medications dispensed?</t>
+  </si>
+  <si>
+    <t>dispensingRecordsUptodate</t>
+  </si>
+  <si>
+    <t>Look at 2 pages of logbook. Are dispensing records complete and up-to-date?</t>
+  </si>
+  <si>
+    <t>writtenProtocolMedicalDispensing</t>
+  </si>
+  <si>
+    <t>Is a written protocol for medication dispensing and documentation available?</t>
+  </si>
+  <si>
     <t>medicinesComment</t>
   </si>
   <si>
-    <t>documentationofMedicationsDispensed</t>
-  </si>
-  <si>
-    <t>Is there documentation of medications dispensed?</t>
-  </si>
-  <si>
-    <t>dispensingRecordsUptodate</t>
-  </si>
-  <si>
-    <t>Look at 2 pages of logbook. Are dispensing records complete and up-to-date?</t>
-  </si>
-  <si>
-    <t>writtenProtocolMedicalDispensing</t>
-  </si>
-  <si>
-    <t>Is a written protocol for medication dispensing and documentation available?</t>
-  </si>
-  <si>
     <t>wastesegregated</t>
   </si>
   <si>
@@ -743,6 +701,15 @@
     <t>Give Comment to this Section</t>
   </si>
   <si>
+    <t>month_year_repeat_group</t>
+  </si>
+  <si>
+    <t>Triangulating Data across VMMC source documents</t>
+  </si>
+  <si>
+    <t>Data Triangulation</t>
+  </si>
+  <si>
     <t>enrollmentRate2WT</t>
   </si>
   <si>
@@ -818,7 +785,7 @@
     <t>twoWayComment</t>
   </si>
   <si>
-    <t>Overall Comment (Data Management and 2WT)</t>
+    <t>Overall Comment (Data Management , 2WT  and EHR)</t>
   </si>
   <si>
     <t>activeMobilisers</t>
@@ -956,37 +923,22 @@
     <t>Undersaved Populations &amp; Community Involvement</t>
   </si>
   <si>
-    <t>dcTargetPopulationComment</t>
-  </si>
-  <si>
-    <t>Give a comment to the Selected Population Groups</t>
-  </si>
-  <si>
     <t>copy-1-of-dcTargetPopulation</t>
   </si>
   <si>
     <t xml:space="preserve">Select MOHCC Cadres that are involved in Demand Creation </t>
   </si>
   <si>
-    <t>copy-1-of-dcTargetPopulationComment</t>
-  </si>
-  <si>
     <t>dcCommunityCadres</t>
   </si>
   <si>
     <t>Select Infuential Community Cadres that are involved in Demand Creation</t>
   </si>
   <si>
-    <t>dcCommunityCadresComment</t>
-  </si>
-  <si>
-    <t>Give a comment to the Selected Influential Community Cadres</t>
-  </si>
-  <si>
     <t>dcInnovation</t>
   </si>
   <si>
-    <t>Any DC  innovations introduced/implemented by the site  DC in the last 6 months?".</t>
+    <t>Any DC  innovations introduced/implemented by the site  DC in the last 6 months?</t>
   </si>
   <si>
     <t>give_overall_comment_demand_creation</t>
@@ -1538,13 +1490,13 @@
     <t>ageofClienthts</t>
   </si>
   <si>
+    <t>HIV Testing and Counseling</t>
+  </si>
+  <si>
     <t>htsScrrenToolUsage</t>
   </si>
   <si>
     <t>Counselor uses HIV screening tool to assess HIV risk as part of targeted testing</t>
-  </si>
-  <si>
-    <t>HIV Testing and Counseling</t>
   </si>
   <si>
     <t>clientHIVRisk</t>
@@ -1956,595 +1908,346 @@
     <t>Is this a follow up clinic visit post VMMC?</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 7th day, or later after VMMC</t>
+    <t>Follow-up -&gt;  Clinic Visit After VMMC</t>
   </si>
   <si>
     <t>ageofClientfollowup</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 8th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Reviewer_observed_follow-up_clinic_visit_on</t>
   </si>
   <si>
     <t>Reviewer observed follow-up clinic visit on  ___  post-operative day/week (select day)</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 9th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Provider_ensured_client_privacy_during_examination</t>
   </si>
   <si>
     <t>Provider ensured client privacy during examination</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 10th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Care_provider_completed_a_physical_exam</t>
   </si>
   <si>
     <t>Care provider completed a physical exam</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 11th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>information_on_the_status_of_clients_healing</t>
   </si>
   <si>
     <t>The care giver/counselor gave information on the status of client’s healing</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 12th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Emphasized_the_need_for_six_week_abstinence_period_during_VMMC_healing</t>
   </si>
   <si>
     <t>Emphasized the need for six week abstinence period during VMMC healing</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 13th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Emphasized_ways_to_improve_compliance_with_abstinenceFu</t>
   </si>
   <si>
     <t>Emphasized ways to improve compliance with abstinence</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 14th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Explained_effective_wound_care_and_pain_management</t>
   </si>
   <si>
     <t>Explained effective wound care and pain management</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 15th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Explained_importance_of_not_applying_any_home_or_traditional_remedies</t>
   </si>
   <si>
     <t>Explained importance of not applying any home or traditional remedies, such as herbs, animal dung or ash to the MC wound (emphasis on associated risks)</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 16th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Discussed_warning_signs_of_adverse_events</t>
   </si>
   <si>
     <t>Discussed warning signs of adverse events and recommendations for managing them</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 17th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Gave_procedures_for_contacting_VMMC_staff</t>
   </si>
   <si>
     <t>Gave procedures for contacting VMMC staff</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 18th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Gave_accurate_information</t>
   </si>
   <si>
     <t>Gave accurate information</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 19th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Communicated_in_clear_simple_termsFu</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 20th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Checked_for_client_understanding_throughout_sessionFu</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 21th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Engaged_client_with_respect_and_without_judgmentFu</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 22th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Affirmed_client_VMMC_decision</t>
   </si>
   <si>
     <t>Affirmed client’s VMMC decision and encouraged him to bring in friends, peers, male relatives</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 23th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Was_the_visit_documented_in_CIR_and_Register</t>
   </si>
   <si>
     <t>Was the visit documented in CIR and Register?</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 24th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Communication_to_Clients_-_HIV_and_MCEducation</t>
   </si>
   <si>
     <t>Communication to Clients - HIV and MC Education and Counseling Materials</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 25th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Examine_all_in-service_communication_materials</t>
   </si>
   <si>
     <t>Examine all in-service communication materials, including flip-charts, pamphlets, brochures, client guidance and instructional hand-outs</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 26th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>On-site_signage_is_sufficient_to_direct_clients</t>
   </si>
   <si>
     <t>On-site signage is sufficient to direct clients to VMMC service locations</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 27th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>testingSpace.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 28th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>htsAlgorithm.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 29th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>gloves.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 30th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>testingKitCurrent.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 31th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>disposalofLancetandLotion.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 32th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>workingTimePiece.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 33th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>testingTimeInterval.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 34th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>testResultsProvidedTimeously.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 35th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>testResultNegative.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 36th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>resultsWithHeld.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 37th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>emphasisedRetestingAfter3Months.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 38th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>remindedVMMCisPartialProtectionofHIV.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 39th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Emphasized_how_VMMC_must_be_combined_with_condom.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 40th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Was_the_test_result_Positive.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 41th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Withheld_results_Positive.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 42th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Conducted_confirmatory_test_according_to_national_algorithm.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 43th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Delivered_positive_results_directly_and_clearly.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 44th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Offered_client_appropriate_emotional_support.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 45th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Addressed_client_HIV_understanding_and_misperceptions.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 46th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Encouraged_disclosure_to_partners_and_offered_assistance.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 47th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Encourage_partner_and_family_HIV_testing.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 48th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Affirmed_that_client_could_still_undergo_VMMC.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 49th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Explained_that_VMMC_recovery_may_take_longer_when_HIV_positive.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 50th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Emphasized_importance_of_consistent_proper_condom_use.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 51th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Provided_information_on_positive_living_for_persons_testing_HIV_positive.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 52th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Initiated_referral_linkage_to_HIV_care_and_treatment.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 53th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Communication_to_Clients.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 54th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Recorded_client_temperature_on_arrival.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 55th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Recorded_client_blood_pressure_on_arrival.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 56th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Recorded_client_pulse_and_respiration_rate_on_arrival.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 57th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Recorded_client_temperature_15_minutes_after_arrival.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 58th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Recorded_client_blood_pressure_15_minutes_after_arrival.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 59th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Recorded_client_pulse_and_respiration_rate_15_minutes_after_arrival.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 60th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Reaffirmed_need_for_six_week_abstinence_period_during_VMMC_healing.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 61th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Emphasized_ways_to_improve_compliance_with_abstinence.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 62th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Gave_oral_and_written_instructions_for_contacting_VMMC_staff.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 63th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Provided_wound_care_flier_and_clear_accurate_instructions_on_wound_care.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 64th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Provided_instructions_for_pain_management.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 65th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Described_warning_signs_of_adverse_events_and_recommendations_for_managing.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 66th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Warned_against_applying_any_home_or_traditional_remedies.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 67th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Communicated_in_clear_simple_terms.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 68th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Gave_accurate_information_note_errors_of_fact.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 69th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Checked_for_client_understanding_throughout_session.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 70th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Engaged_client_with_respect_and_without_judgment.1</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 71th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Affirmed_clients_VMMC_decision</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 72th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Was_the_visit_documented_in_CIR_and_RegisterFu</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 73th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Communication_to_Clients_-_HIV_and_MCEducationFu</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 74th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Examine_all_in-service_communication_materialsFu</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 75th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>On-site_signage_is_sufficient_to_direct_clients_to_VMMC_service_locations</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 76th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>On-site_materials_adequately_support_in-service_communication</t>
   </si>
   <si>
     <t>On-site materials adequately support in-service communication</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 77th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Materials_are_legible_and_in_good-condition</t>
   </si>
   <si>
     <t>Materials are legible and in good-condition (i.e., not faded, worn, or distorted)</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 78th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Materials_tailored_to_specific_audiences_are_available</t>
   </si>
   <si>
     <t>Materials tailored to specific audiences are available (e.g. adolescent &amp; adult males, wives/partners, parents, guardians, other  home caregivers)</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 79th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Clinic_staff_can_explain_or_show_how_they_use_these_materials_in_client_education_and_counseling</t>
   </si>
   <si>
     <t>Clinic staff can explain or show how they use these materials in client education and counseling</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 80th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Communication_to_Clients_-_Information_on_Materials</t>
   </si>
   <si>
     <t>Communication to Clients - Information on Materials</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 81th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>basic_hiv_and_aids_risk_reduction_information_including_other_stis</t>
   </si>
   <si>
     <t>Basic HIV and AIDS risk reduction information (including other STIs)</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 82th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Modes_of_HIV_transmission_and_relative_HIV-risk_assessment</t>
   </si>
   <si>
     <t>Modes of HIV transmission and relative HIV-risk assessment</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 83th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Guidance_for_reducing_individual_HIV_risk</t>
   </si>
   <si>
     <t>Guidance for reducing individual HIV risk</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 84th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Information_on_need_for_abstinence_during_VMMC_healing</t>
   </si>
   <si>
     <t>Information on need for abstinence during VMMC healing</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 85th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Wound_care_instructions</t>
   </si>
   <si>
     <t>Wound care instructions</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 86th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Warning_against_applying_any_home_or_tradional_remedies</t>
   </si>
   <si>
     <t>Warning against applying any home or tradional remedies, such as  herbs, animal dung or ash to the VMMC wound (emphasis on associated risks including tetanus)</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 87th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Specific_contact_information_for_reaching_VMMC_staff</t>
   </si>
   <si>
     <t>Specific contact information for reaching VMMC staff</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 88th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>Emergency_contact_number_operational</t>
   </si>
   <si>
     <t>Emergency contact number operational (dial the number, if possible, to confirm that it is in service)</t>
   </si>
   <si>
-    <t>Follow-up Clinic Visit: 2nd , 89th day, or later after VMMC</t>
-  </si>
-  <si>
     <t>give_overall_comment_communication</t>
   </si>
   <si>
     <t>Give overall Comment (Communication)</t>
-  </si>
-  <si>
-    <t>Follow-up Clinic Visit: 2nd , 90th day, or later after VMMC</t>
   </si>
 </sst>
 </file>
@@ -2557,7 +2260,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2572,6 +2275,12 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -3051,16 +2760,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3069,122 +2775,128 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3539,15 +3251,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D403"/>
+  <dimension ref="A1:D394"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B128" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="172.222222222222" customWidth="1"/>
+    <col min="1" max="1" width="96.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="110" customWidth="1"/>
+    <col min="3" max="3" width="27.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3564,74 +3278,116 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3642,10 +3398,10 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3656,10 +3412,10 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3667,125 +3423,125 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3796,10 +3552,10 @@
         <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3810,10 +3566,10 @@
         <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3824,10 +3580,10 @@
         <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3838,108 +3594,108 @@
         <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
         <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3950,10 +3706,10 @@
         <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3964,10 +3720,10 @@
         <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3978,10 +3734,10 @@
         <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3992,10 +3748,10 @@
         <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4006,10 +3762,10 @@
         <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4020,24 +3776,24 @@
         <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
         <v>78</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
         <v>79</v>
-      </c>
-      <c r="C38" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4048,10 +3804,10 @@
         <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4062,10 +3818,10 @@
         <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4076,10 +3832,10 @@
         <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4090,10 +3846,10 @@
         <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4104,10 +3860,10 @@
         <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4118,10 +3874,10 @@
         <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4132,10 +3888,10 @@
         <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4146,10 +3902,10 @@
         <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4160,10 +3916,10 @@
         <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4174,10 +3930,10 @@
         <v>99</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4188,10 +3944,10 @@
         <v>101</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4199,27 +3955,27 @@
         <v>102</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
         <v>104</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
         <v>105</v>
-      </c>
-      <c r="C51" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4230,10 +3986,10 @@
         <v>107</v>
       </c>
       <c r="C52" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4244,10 +4000,10 @@
         <v>109</v>
       </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4258,10 +4014,10 @@
         <v>111</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -4272,10 +4028,10 @@
         <v>113</v>
       </c>
       <c r="C55" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -4286,10 +4042,10 @@
         <v>115</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4297,13 +4053,13 @@
         <v>116</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4314,10 +4070,10 @@
         <v>119</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4328,10 +4084,10 @@
         <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4342,10 +4098,10 @@
         <v>123</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4356,10 +4112,10 @@
         <v>125</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4370,10 +4126,10 @@
         <v>127</v>
       </c>
       <c r="C62" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4384,10 +4140,10 @@
         <v>129</v>
       </c>
       <c r="C63" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4398,10 +4154,10 @@
         <v>131</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4412,10 +4168,10 @@
         <v>133</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4426,10 +4182,10 @@
         <v>135</v>
       </c>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4440,10 +4196,10 @@
         <v>137</v>
       </c>
       <c r="C67" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4454,10 +4210,10 @@
         <v>139</v>
       </c>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4465,27 +4221,27 @@
         <v>140</v>
       </c>
       <c r="B69" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" t="s">
         <v>142</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
         <v>143</v>
-      </c>
-      <c r="C70" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4496,10 +4252,10 @@
         <v>145</v>
       </c>
       <c r="C71" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4510,10 +4266,10 @@
         <v>147</v>
       </c>
       <c r="C72" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4521,69 +4277,69 @@
         <v>148</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B74" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B75" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C77" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4594,10 +4350,10 @@
         <v>159</v>
       </c>
       <c r="C78" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4608,10 +4364,10 @@
         <v>161</v>
       </c>
       <c r="C79" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4622,10 +4378,10 @@
         <v>163</v>
       </c>
       <c r="C80" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4636,10 +4392,10 @@
         <v>165</v>
       </c>
       <c r="C81" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4650,10 +4406,10 @@
         <v>167</v>
       </c>
       <c r="C82" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4664,10 +4420,10 @@
         <v>169</v>
       </c>
       <c r="C83" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4675,27 +4431,27 @@
         <v>170</v>
       </c>
       <c r="B84" t="s">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="C84" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" t="s">
         <v>172</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
         <v>173</v>
-      </c>
-      <c r="C85" t="s">
-        <v>77</v>
-      </c>
-      <c r="D85" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4706,10 +4462,10 @@
         <v>175</v>
       </c>
       <c r="C86" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4720,10 +4476,10 @@
         <v>177</v>
       </c>
       <c r="C87" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4734,10 +4490,10 @@
         <v>179</v>
       </c>
       <c r="C88" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4748,10 +4504,10 @@
         <v>181</v>
       </c>
       <c r="C89" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4762,10 +4518,10 @@
         <v>183</v>
       </c>
       <c r="C90" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4773,27 +4529,27 @@
         <v>184</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="C91" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B92" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C92" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4804,10 +4560,10 @@
         <v>189</v>
       </c>
       <c r="C93" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4818,10 +4574,10 @@
         <v>191</v>
       </c>
       <c r="C94" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4832,10 +4588,10 @@
         <v>193</v>
       </c>
       <c r="C95" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D95" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4846,10 +4602,10 @@
         <v>195</v>
       </c>
       <c r="C96" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4860,10 +4616,10 @@
         <v>197</v>
       </c>
       <c r="C97" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4874,10 +4630,10 @@
         <v>199</v>
       </c>
       <c r="C98" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4888,10 +4644,10 @@
         <v>201</v>
       </c>
       <c r="C99" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4902,10 +4658,10 @@
         <v>203</v>
       </c>
       <c r="C100" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4916,10 +4672,10 @@
         <v>205</v>
       </c>
       <c r="C101" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D101" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4930,10 +4686,10 @@
         <v>207</v>
       </c>
       <c r="C102" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4944,10 +4700,10 @@
         <v>209</v>
       </c>
       <c r="C103" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="D103" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4958,609 +4714,609 @@
         <v>211</v>
       </c>
       <c r="C104" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="D104" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
+        <v>214</v>
+      </c>
+      <c r="B105" t="s">
+        <v>215</v>
+      </c>
+      <c r="C105" t="s">
         <v>212</v>
       </c>
-      <c r="B105" t="s">
+      <c r="D105" t="s">
         <v>213</v>
-      </c>
-      <c r="C105" t="s">
-        <v>77</v>
-      </c>
-      <c r="D105" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B106" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C106" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="D106" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B107" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C107" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="D107" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B108" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C108" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="D108" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B109" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C109" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="D109" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" t="s">
-        <v>222</v>
+      <c r="A110" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="B110" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C110" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="D110" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B111" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C111" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D111" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B112" t="s">
+        <v>231</v>
+      </c>
+      <c r="C112" t="s">
+        <v>212</v>
+      </c>
+      <c r="D112" t="s">
         <v>229</v>
-      </c>
-      <c r="C112" t="s">
-        <v>226</v>
-      </c>
-      <c r="D112" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B113" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C113" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D113" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B114" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C114" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D114" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B115" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C115" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D115" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B116" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C116" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D116" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B117" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C117" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D117" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B118" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C118" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D118" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B119" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C119" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D119" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B120" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C120" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D120" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B121" t="s">
+        <v>250</v>
+      </c>
+      <c r="C121" t="s">
+        <v>212</v>
+      </c>
+      <c r="D121" t="s">
         <v>248</v>
-      </c>
-      <c r="C121" t="s">
-        <v>226</v>
-      </c>
-      <c r="D121" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B122" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C122" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D122" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B123" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C123" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="D123" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B124" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C124" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="D124" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
+        <v>259</v>
+      </c>
+      <c r="B125" t="s">
+        <v>260</v>
+      </c>
+      <c r="C125" t="s">
         <v>255</v>
       </c>
-      <c r="B125" t="s">
-        <v>256</v>
-      </c>
-      <c r="C125" t="s">
-        <v>226</v>
-      </c>
       <c r="D125" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B126" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C126" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="D126" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B127" t="s">
+        <v>265</v>
+      </c>
+      <c r="C127" t="s">
+        <v>255</v>
+      </c>
+      <c r="D127" t="s">
         <v>261</v>
-      </c>
-      <c r="C127" t="s">
-        <v>226</v>
-      </c>
-      <c r="D127" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B128" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C128" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="D128" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B129" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C129" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D129" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B130" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C130" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D130" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B131" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C131" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D131" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B132" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C132" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D132" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B133" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C133" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D133" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B134" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C134" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D134" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B135" t="s">
+        <v>282</v>
+      </c>
+      <c r="C135" t="s">
+        <v>255</v>
+      </c>
+      <c r="D135" t="s">
         <v>280</v>
-      </c>
-      <c r="C135" t="s">
-        <v>266</v>
-      </c>
-      <c r="D135" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B136" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C136" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D136" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B137" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C137" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D137" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B138" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C138" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D138" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B139" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C139" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D139" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B140" t="s">
+        <v>294</v>
+      </c>
+      <c r="C140" t="s">
+        <v>255</v>
+      </c>
+      <c r="D140" t="s">
         <v>290</v>
-      </c>
-      <c r="C140" t="s">
-        <v>266</v>
-      </c>
-      <c r="D140" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B141" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C141" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D141" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B142" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C142" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D142" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
+        <v>300</v>
+      </c>
+      <c r="B143" t="s">
+        <v>301</v>
+      </c>
+      <c r="C143" t="s">
+        <v>255</v>
+      </c>
+      <c r="D143" t="s">
         <v>297</v>
-      </c>
-      <c r="B143" t="s">
-        <v>298</v>
-      </c>
-      <c r="C143" t="s">
-        <v>266</v>
-      </c>
-      <c r="D143" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B144" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C144" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D144" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B145" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C145" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="D145" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B146" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C146" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="D146" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B147" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C147" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="D147" t="s">
         <v>308</v>
@@ -5568,13 +5324,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B148" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C148" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="D148" t="s">
         <v>308</v>
@@ -5582,13 +5338,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B149" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C149" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="D149" t="s">
         <v>308</v>
@@ -5596,13 +5352,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B150" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C150" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="D150" t="s">
         <v>308</v>
@@ -5610,13 +5366,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B151" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C151" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="D151" t="s">
         <v>308</v>
@@ -5624,13 +5380,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B152" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C152" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="D152" t="s">
         <v>308</v>
@@ -5638,13 +5394,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B153" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C153" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="D153" t="s">
         <v>308</v>
@@ -5652,13 +5408,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B154" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C154" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="D154" t="s">
         <v>308</v>
@@ -5666,408 +5422,408 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B155" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C155" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D155" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B156" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C156" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D156" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B157" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C157" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D157" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B158" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C158" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D158" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B159" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C159" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D159" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B160" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C160" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D160" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B161" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C161" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D161" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B162" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C162" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D162" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B163" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C163" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D163" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B164" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C164" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D164" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B165" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C165" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D165" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B166" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C166" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D166" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B167" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C167" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D167" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B168" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C168" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D168" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B169" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C169" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D169" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B170" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C170" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D170" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B171" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C171" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D171" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B172" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C172" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D172" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B173" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C173" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D173" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B174" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C174" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D174" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B175" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C175" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D175" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B176" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C176" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D176" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B177" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C177" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D177" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B178" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C178" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D178" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B179" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C179" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D179" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B180" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C180" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D180" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B181" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="C181" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D181" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B182" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C182" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D182" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
+        <v>380</v>
+      </c>
+      <c r="B183" t="s">
         <v>379</v>
       </c>
-      <c r="B183" t="s">
-        <v>380</v>
-      </c>
       <c r="C183" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D183" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -6078,10 +5834,10 @@
         <v>382</v>
       </c>
       <c r="C184" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D184" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -6092,332 +5848,332 @@
         <v>384</v>
       </c>
       <c r="C185" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
       <c r="D185" t="s">
-        <v>324</v>
+        <v>386</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B186" t="s">
+        <v>388</v>
+      </c>
+      <c r="C186" t="s">
+        <v>385</v>
+      </c>
+      <c r="D186" t="s">
         <v>386</v>
-      </c>
-      <c r="C186" t="s">
-        <v>324</v>
-      </c>
-      <c r="D186" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B187" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C187" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
       <c r="D187" t="s">
-        <v>324</v>
+        <v>386</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B188" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C188" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
       <c r="D188" t="s">
-        <v>324</v>
+        <v>386</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B189" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C189" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
       <c r="D189" t="s">
-        <v>324</v>
+        <v>386</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B190" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="C190" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
       <c r="D190" t="s">
-        <v>324</v>
+        <v>386</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B191" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C191" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
       <c r="D191" t="s">
-        <v>324</v>
+        <v>386</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B192" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C192" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
       <c r="D192" t="s">
-        <v>324</v>
+        <v>386</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B193" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C193" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
       <c r="D193" t="s">
-        <v>324</v>
+        <v>386</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B194" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C194" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D194" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B195" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C195" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D195" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B196" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C196" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D196" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B197" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C197" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D197" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B198" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C198" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D198" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B199" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C199" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D199" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B200" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C200" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D200" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B201" t="s">
-        <v>416</v>
+        <v>76</v>
       </c>
       <c r="C201" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D201" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B202" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C202" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D202" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B203" t="s">
+        <v>422</v>
+      </c>
+      <c r="C203" t="s">
+        <v>385</v>
+      </c>
+      <c r="D203" t="s">
         <v>420</v>
-      </c>
-      <c r="C203" t="s">
-        <v>401</v>
-      </c>
-      <c r="D203" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B204" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C204" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D204" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B205" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C205" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D205" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B206" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="C206" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D206" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B207" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C207" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D207" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B208" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="C208" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D208" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6425,27 +6181,27 @@
         <v>431</v>
       </c>
       <c r="B209" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="C209" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D209" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
+        <v>432</v>
+      </c>
+      <c r="B210" t="s">
         <v>433</v>
       </c>
-      <c r="B210" t="s">
-        <v>91</v>
-      </c>
       <c r="C210" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D210" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -6453,153 +6209,153 @@
         <v>434</v>
       </c>
       <c r="B211" t="s">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="C211" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D211" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B212" t="s">
-        <v>438</v>
+        <v>392</v>
       </c>
       <c r="C212" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D212" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B213" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C213" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D213" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B214" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C214" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D214" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B215" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="C215" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D215" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B216" t="s">
-        <v>445</v>
+        <v>390</v>
       </c>
       <c r="C216" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D216" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B217" t="s">
+        <v>414</v>
+      </c>
+      <c r="C217" t="s">
+        <v>385</v>
+      </c>
+      <c r="D217" t="s">
         <v>420</v>
-      </c>
-      <c r="C217" t="s">
-        <v>401</v>
-      </c>
-      <c r="D217" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B218" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="C218" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D218" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B219" t="s">
-        <v>449</v>
+        <v>76</v>
       </c>
       <c r="C219" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D219" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B220" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
       <c r="C220" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D220" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
+        <v>450</v>
+      </c>
+      <c r="B221" t="s">
         <v>451</v>
       </c>
-      <c r="B221" t="s">
-        <v>408</v>
-      </c>
       <c r="C221" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D221" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6610,10 +6366,10 @@
         <v>453</v>
       </c>
       <c r="C222" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D222" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6624,10 +6380,10 @@
         <v>455</v>
       </c>
       <c r="C223" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D223" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6638,10 +6394,10 @@
         <v>457</v>
       </c>
       <c r="C224" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D224" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -6649,139 +6405,139 @@
         <v>458</v>
       </c>
       <c r="B225" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="C225" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D225" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B226" t="s">
-        <v>430</v>
+        <v>461</v>
       </c>
       <c r="C226" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D226" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B227" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C227" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D227" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B228" t="s">
-        <v>91</v>
+        <v>465</v>
       </c>
       <c r="C228" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D228" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B229" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C229" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D229" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B230" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C230" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D230" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B231" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C231" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D231" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B232" t="s">
-        <v>471</v>
+        <v>76</v>
       </c>
       <c r="C232" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D232" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B233" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="C233" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D233" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
+        <v>475</v>
+      </c>
+      <c r="B234" t="s">
+        <v>453</v>
+      </c>
+      <c r="C234" t="s">
+        <v>385</v>
+      </c>
+      <c r="D234" t="s">
         <v>474</v>
-      </c>
-      <c r="B234" t="s">
-        <v>475</v>
-      </c>
-      <c r="C234" t="s">
-        <v>401</v>
-      </c>
-      <c r="D234" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6789,237 +6545,237 @@
         <v>476</v>
       </c>
       <c r="B235" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="C235" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D235" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B236" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="C236" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D236" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B237" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="C237" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D237" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B238" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="C238" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D238" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B239" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="C239" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D239" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B240" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="C240" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D240" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B241" t="s">
-        <v>91</v>
+        <v>467</v>
       </c>
       <c r="C241" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D241" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B242" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C242" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D242" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B243" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C243" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D243" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B244" t="s">
-        <v>471</v>
+        <v>76</v>
       </c>
       <c r="C244" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D244" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B245" t="s">
-        <v>473</v>
+        <v>419</v>
       </c>
       <c r="C245" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D245" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B246" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="C246" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D246" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B247" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="C247" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D247" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B248" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="C248" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D248" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B249" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="C249" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D249" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B250" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="C250" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D250" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
+        <v>498</v>
+      </c>
+      <c r="B251" t="s">
         <v>499</v>
       </c>
-      <c r="B251" t="s">
-        <v>485</v>
-      </c>
       <c r="C251" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D251" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -7027,822 +6783,825 @@
         <v>500</v>
       </c>
       <c r="B252" t="s">
+        <v>501</v>
+      </c>
+      <c r="C252" t="s">
+        <v>385</v>
+      </c>
+      <c r="D252" t="s">
         <v>487</v>
-      </c>
-      <c r="C252" t="s">
-        <v>401</v>
-      </c>
-      <c r="D252" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B253" t="s">
-        <v>91</v>
+        <v>503</v>
       </c>
       <c r="C253" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D253" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B254" t="s">
-        <v>435</v>
+        <v>505</v>
       </c>
       <c r="C254" t="s">
-        <v>401</v>
+        <v>385</v>
+      </c>
+      <c r="D254" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B255" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C255" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D255" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B256" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C256" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D256" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B257" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C257" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D257" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B258" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C258" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D258" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B259" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C259" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D259" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B260" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C260" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D260" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B261" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C261" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D261" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B262" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C262" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D262" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B263" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C263" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D263" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B264" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C264" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D264" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B265" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C265" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D265" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B266" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C266" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D266" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B267" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C267" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D267" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B268" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C268" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D268" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B269" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C269" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D269" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B270" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C270" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D270" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B271" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C271" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D271" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B272" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C272" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D272" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B273" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C273" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D273" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B274" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C274" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D274" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B275" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C275" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D275" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B276" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C276" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D276" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B277" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C277" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D277" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B278" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C278" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D278" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B279" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C279" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D279" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B280" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C280" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D280" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B281" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C281" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D281" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B282" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C282" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D282" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B283" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C283" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D283" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B284" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C284" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D284" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B285" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C285" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D285" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B286" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C286" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D286" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B287" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C287" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D287" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B288" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C288" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D288" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B289" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C289" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D289" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B290" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C290" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D290" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B291" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C291" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D291" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B292" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C292" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D292" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B293" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C293" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D293" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B294" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C294" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D294" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B295" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C295" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D295" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B296" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C296" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D296" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B297" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C297" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D297" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B298" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C298" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D298" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B299" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C299" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D299" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B300" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C300" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D300" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B301" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C301" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D301" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B302" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C302" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D302" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B303" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C303" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D303" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B304" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C304" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D304" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B305" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C305" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D305" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B306" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C306" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D306" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B307" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C307" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D307" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B308" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C308" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D308" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B309" t="s">
-        <v>613</v>
+        <v>517</v>
       </c>
       <c r="C309" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D309" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B310" t="s">
-        <v>615</v>
+        <v>76</v>
       </c>
       <c r="C310" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D310" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7853,24 +7612,24 @@
         <v>617</v>
       </c>
       <c r="C311" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D311" t="s">
-        <v>505</v>
+        <v>618</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="s">
+        <v>619</v>
+      </c>
+      <c r="B312" t="s">
+        <v>419</v>
+      </c>
+      <c r="C312" t="s">
+        <v>385</v>
+      </c>
+      <c r="D312" t="s">
         <v>618</v>
-      </c>
-      <c r="B312" t="s">
-        <v>619</v>
-      </c>
-      <c r="C312" t="s">
-        <v>401</v>
-      </c>
-      <c r="D312" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -7881,10 +7640,10 @@
         <v>621</v>
       </c>
       <c r="C313" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D313" t="s">
-        <v>505</v>
+        <v>618</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7895,10 +7654,10 @@
         <v>623</v>
       </c>
       <c r="C314" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D314" t="s">
-        <v>505</v>
+        <v>618</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7909,10 +7668,10 @@
         <v>625</v>
       </c>
       <c r="C315" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D315" t="s">
-        <v>505</v>
+        <v>618</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7923,10 +7682,10 @@
         <v>627</v>
       </c>
       <c r="C316" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D316" t="s">
-        <v>505</v>
+        <v>618</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7937,10 +7696,10 @@
         <v>629</v>
       </c>
       <c r="C317" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D317" t="s">
-        <v>505</v>
+        <v>618</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7948,69 +7707,69 @@
         <v>630</v>
       </c>
       <c r="B318" t="s">
-        <v>533</v>
+        <v>631</v>
       </c>
       <c r="C318" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D318" t="s">
-        <v>505</v>
+        <v>618</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B319" t="s">
-        <v>91</v>
+        <v>633</v>
       </c>
       <c r="C319" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D319" t="s">
-        <v>505</v>
+        <v>618</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B320" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C320" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D320" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B321" t="s">
-        <v>435</v>
+        <v>637</v>
       </c>
       <c r="C321" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D321" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B322" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C322" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D322" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -8021,1130 +7780,1004 @@
         <v>641</v>
       </c>
       <c r="C323" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D323" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B324" t="s">
-        <v>644</v>
+        <v>609</v>
       </c>
       <c r="C324" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D324" t="s">
-        <v>645</v>
+        <v>618</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B325" t="s">
-        <v>647</v>
+        <v>613</v>
       </c>
       <c r="C325" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D325" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B326" t="s">
-        <v>650</v>
+        <v>517</v>
       </c>
       <c r="C326" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D326" t="s">
-        <v>651</v>
+        <v>618</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B327" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="C327" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D327" t="s">
-        <v>654</v>
+        <v>618</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="B328" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="C328" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D328" t="s">
-        <v>657</v>
+        <v>618</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="B329" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="C329" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D329" t="s">
-        <v>660</v>
+        <v>618</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="B330" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="C330" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D330" t="s">
-        <v>663</v>
+        <v>618</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="B331" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="C331" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D331" t="s">
-        <v>666</v>
+        <v>618</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="B332" t="s">
-        <v>668</v>
+        <v>529</v>
       </c>
       <c r="C332" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D332" t="s">
-        <v>669</v>
+        <v>618</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="B333" t="s">
-        <v>625</v>
+        <v>531</v>
       </c>
       <c r="C333" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D333" t="s">
-        <v>671</v>
+        <v>618</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="B334" t="s">
-        <v>629</v>
+        <v>533</v>
       </c>
       <c r="C334" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D334" t="s">
-        <v>673</v>
+        <v>618</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="B335" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C335" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D335" t="s">
-        <v>675</v>
+        <v>618</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="B336" t="s">
-        <v>677</v>
+        <v>537</v>
       </c>
       <c r="C336" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D336" t="s">
-        <v>678</v>
+        <v>618</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
       <c r="B337" t="s">
-        <v>680</v>
+        <v>539</v>
       </c>
       <c r="C337" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D337" t="s">
-        <v>681</v>
+        <v>618</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="B338" t="s">
-        <v>683</v>
+        <v>541</v>
       </c>
       <c r="C338" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D338" t="s">
-        <v>684</v>
+        <v>618</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="s">
-        <v>685</v>
+        <v>662</v>
       </c>
       <c r="B339" t="s">
-        <v>686</v>
+        <v>543</v>
       </c>
       <c r="C339" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D339" t="s">
-        <v>687</v>
+        <v>618</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="s">
-        <v>688</v>
+        <v>663</v>
       </c>
       <c r="B340" t="s">
-        <v>689</v>
+        <v>545</v>
       </c>
       <c r="C340" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D340" t="s">
-        <v>690</v>
+        <v>618</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="s">
-        <v>691</v>
+        <v>664</v>
       </c>
       <c r="B341" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C341" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D341" t="s">
-        <v>692</v>
+        <v>618</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="s">
-        <v>693</v>
+        <v>665</v>
       </c>
       <c r="B342" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C342" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D342" t="s">
-        <v>694</v>
+        <v>618</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="s">
-        <v>695</v>
+        <v>666</v>
       </c>
       <c r="B343" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C343" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D343" t="s">
-        <v>696</v>
+        <v>618</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="s">
-        <v>697</v>
+        <v>667</v>
       </c>
       <c r="B344" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C344" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D344" t="s">
-        <v>698</v>
+        <v>618</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" t="s">
-        <v>699</v>
+        <v>668</v>
       </c>
       <c r="B345" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C345" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D345" t="s">
-        <v>700</v>
+        <v>618</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" t="s">
-        <v>701</v>
+        <v>669</v>
       </c>
       <c r="B346" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C346" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D346" t="s">
-        <v>702</v>
+        <v>618</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="s">
-        <v>703</v>
+        <v>670</v>
       </c>
       <c r="B347" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C347" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D347" t="s">
-        <v>704</v>
+        <v>618</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="s">
-        <v>705</v>
+        <v>671</v>
       </c>
       <c r="B348" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C348" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D348" t="s">
-        <v>706</v>
+        <v>618</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" t="s">
-        <v>707</v>
+        <v>672</v>
       </c>
       <c r="B349" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C349" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D349" t="s">
-        <v>708</v>
+        <v>618</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" t="s">
-        <v>709</v>
+        <v>673</v>
       </c>
       <c r="B350" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C350" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D350" t="s">
-        <v>710</v>
+        <v>618</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" t="s">
-        <v>711</v>
+        <v>674</v>
       </c>
       <c r="B351" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C351" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D351" t="s">
-        <v>712</v>
+        <v>618</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" t="s">
-        <v>713</v>
+        <v>675</v>
       </c>
       <c r="B352" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C352" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D352" t="s">
-        <v>714</v>
+        <v>618</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" t="s">
-        <v>715</v>
+        <v>676</v>
       </c>
       <c r="B353" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C353" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D353" t="s">
-        <v>716</v>
+        <v>618</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="B354" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C354" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D354" t="s">
-        <v>718</v>
+        <v>618</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" t="s">
-        <v>719</v>
+        <v>678</v>
       </c>
       <c r="B355" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C355" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D355" t="s">
-        <v>720</v>
+        <v>618</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" t="s">
-        <v>721</v>
+        <v>679</v>
       </c>
       <c r="B356" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C356" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D356" t="s">
-        <v>722</v>
+        <v>618</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" t="s">
-        <v>723</v>
+        <v>680</v>
       </c>
       <c r="B357" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C357" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D357" t="s">
-        <v>724</v>
+        <v>618</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" t="s">
-        <v>725</v>
+        <v>681</v>
       </c>
       <c r="B358" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C358" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D358" t="s">
-        <v>726</v>
+        <v>618</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" t="s">
-        <v>727</v>
+        <v>682</v>
       </c>
       <c r="B359" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C359" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D359" t="s">
-        <v>728</v>
+        <v>618</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" t="s">
-        <v>729</v>
+        <v>683</v>
       </c>
       <c r="B360" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C360" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D360" t="s">
-        <v>730</v>
+        <v>618</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" t="s">
-        <v>731</v>
+        <v>684</v>
       </c>
       <c r="B361" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C361" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D361" t="s">
-        <v>732</v>
+        <v>618</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" t="s">
-        <v>733</v>
+        <v>685</v>
       </c>
       <c r="B362" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C362" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D362" t="s">
-        <v>734</v>
+        <v>618</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" t="s">
-        <v>735</v>
+        <v>686</v>
       </c>
       <c r="B363" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C363" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D363" t="s">
-        <v>736</v>
+        <v>618</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" t="s">
-        <v>737</v>
+        <v>687</v>
       </c>
       <c r="B364" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C364" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D364" t="s">
-        <v>738</v>
+        <v>618</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" t="s">
-        <v>739</v>
+        <v>688</v>
       </c>
       <c r="B365" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C365" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D365" t="s">
-        <v>740</v>
+        <v>618</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" t="s">
-        <v>741</v>
+        <v>689</v>
       </c>
       <c r="B366" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C366" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D366" t="s">
-        <v>742</v>
+        <v>618</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" t="s">
-        <v>743</v>
+        <v>690</v>
       </c>
       <c r="B367" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C367" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D367" t="s">
-        <v>744</v>
+        <v>618</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" t="s">
-        <v>745</v>
+        <v>691</v>
       </c>
       <c r="B368" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C368" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D368" t="s">
-        <v>746</v>
+        <v>618</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" t="s">
-        <v>747</v>
+        <v>692</v>
       </c>
       <c r="B369" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C369" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D369" t="s">
-        <v>748</v>
+        <v>618</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" t="s">
-        <v>749</v>
+        <v>693</v>
       </c>
       <c r="B370" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C370" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D370" t="s">
-        <v>750</v>
+        <v>618</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" t="s">
-        <v>751</v>
+        <v>694</v>
       </c>
       <c r="B371" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C371" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D371" t="s">
-        <v>752</v>
+        <v>618</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" t="s">
-        <v>753</v>
+        <v>695</v>
       </c>
       <c r="B372" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C372" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D372" t="s">
-        <v>754</v>
+        <v>618</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" t="s">
-        <v>755</v>
+        <v>696</v>
       </c>
       <c r="B373" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C373" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D373" t="s">
-        <v>756</v>
+        <v>618</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" t="s">
-        <v>757</v>
+        <v>697</v>
       </c>
       <c r="B374" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C374" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D374" t="s">
-        <v>758</v>
+        <v>618</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" t="s">
-        <v>759</v>
+        <v>698</v>
       </c>
       <c r="B375" t="s">
-        <v>613</v>
+        <v>517</v>
       </c>
       <c r="C375" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D375" t="s">
-        <v>760</v>
+        <v>618</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" t="s">
-        <v>761</v>
+        <v>699</v>
       </c>
       <c r="B376" t="s">
-        <v>615</v>
+        <v>646</v>
       </c>
       <c r="C376" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D376" t="s">
-        <v>762</v>
+        <v>618</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" t="s">
-        <v>763</v>
+        <v>700</v>
       </c>
       <c r="B377" t="s">
-        <v>617</v>
+        <v>648</v>
       </c>
       <c r="C377" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D377" t="s">
-        <v>764</v>
+        <v>618</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" t="s">
-        <v>765</v>
+        <v>701</v>
       </c>
       <c r="B378" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
       <c r="C378" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D378" t="s">
-        <v>766</v>
+        <v>618</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" t="s">
-        <v>767</v>
+        <v>702</v>
       </c>
       <c r="B379" t="s">
-        <v>621</v>
+        <v>652</v>
       </c>
       <c r="C379" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D379" t="s">
-        <v>768</v>
+        <v>618</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" t="s">
-        <v>769</v>
+        <v>703</v>
       </c>
       <c r="B380" t="s">
-        <v>623</v>
+        <v>654</v>
       </c>
       <c r="C380" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D380" t="s">
-        <v>770</v>
+        <v>618</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" t="s">
-        <v>771</v>
+        <v>704</v>
       </c>
       <c r="B381" t="s">
-        <v>625</v>
+        <v>705</v>
       </c>
       <c r="C381" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D381" t="s">
-        <v>772</v>
+        <v>618</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" t="s">
-        <v>773</v>
+        <v>706</v>
       </c>
       <c r="B382" t="s">
-        <v>627</v>
+        <v>707</v>
       </c>
       <c r="C382" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D382" t="s">
-        <v>774</v>
+        <v>618</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" t="s">
-        <v>775</v>
+        <v>708</v>
       </c>
       <c r="B383" t="s">
-        <v>629</v>
+        <v>709</v>
       </c>
       <c r="C383" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D383" t="s">
-        <v>776</v>
+        <v>618</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" t="s">
-        <v>777</v>
+        <v>710</v>
       </c>
       <c r="B384" t="s">
-        <v>533</v>
+        <v>711</v>
       </c>
       <c r="C384" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D384" t="s">
-        <v>778</v>
+        <v>618</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" t="s">
-        <v>779</v>
+        <v>712</v>
       </c>
       <c r="B385" t="s">
-        <v>677</v>
+        <v>713</v>
       </c>
       <c r="C385" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D385" t="s">
-        <v>780</v>
+        <v>618</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" t="s">
-        <v>781</v>
+        <v>714</v>
       </c>
       <c r="B386" t="s">
-        <v>680</v>
+        <v>715</v>
       </c>
       <c r="C386" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D386" t="s">
-        <v>782</v>
+        <v>618</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" t="s">
-        <v>783</v>
+        <v>716</v>
       </c>
       <c r="B387" t="s">
-        <v>683</v>
+        <v>717</v>
       </c>
       <c r="C387" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D387" t="s">
-        <v>784</v>
+        <v>618</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" t="s">
-        <v>785</v>
+        <v>718</v>
       </c>
       <c r="B388" t="s">
-        <v>686</v>
+        <v>719</v>
       </c>
       <c r="C388" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D388" t="s">
-        <v>786</v>
+        <v>618</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" t="s">
-        <v>787</v>
+        <v>720</v>
       </c>
       <c r="B389" t="s">
-        <v>689</v>
+        <v>721</v>
       </c>
       <c r="C389" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D389" t="s">
-        <v>788</v>
+        <v>618</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" t="s">
-        <v>789</v>
+        <v>722</v>
       </c>
       <c r="B390" t="s">
-        <v>790</v>
+        <v>723</v>
       </c>
       <c r="C390" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D390" t="s">
-        <v>791</v>
+        <v>618</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" t="s">
-        <v>792</v>
+        <v>724</v>
       </c>
       <c r="B391" t="s">
-        <v>793</v>
+        <v>725</v>
       </c>
       <c r="C391" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D391" t="s">
-        <v>794</v>
+        <v>618</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" t="s">
-        <v>795</v>
+        <v>726</v>
       </c>
       <c r="B392" t="s">
-        <v>796</v>
+        <v>727</v>
       </c>
       <c r="C392" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D392" t="s">
-        <v>797</v>
+        <v>618</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" t="s">
-        <v>798</v>
+        <v>728</v>
       </c>
       <c r="B393" t="s">
-        <v>799</v>
+        <v>729</v>
       </c>
       <c r="C393" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D393" t="s">
-        <v>800</v>
+        <v>618</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" t="s">
-        <v>801</v>
+        <v>730</v>
       </c>
       <c r="B394" t="s">
-        <v>802</v>
+        <v>731</v>
       </c>
       <c r="C394" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D394" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4">
-      <c r="A395" t="s">
-        <v>804</v>
-      </c>
-      <c r="B395" t="s">
-        <v>805</v>
-      </c>
-      <c r="C395" t="s">
-        <v>401</v>
-      </c>
-      <c r="D395" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4">
-      <c r="A396" t="s">
-        <v>807</v>
-      </c>
-      <c r="B396" t="s">
-        <v>808</v>
-      </c>
-      <c r="C396" t="s">
-        <v>401</v>
-      </c>
-      <c r="D396" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4">
-      <c r="A397" t="s">
-        <v>810</v>
-      </c>
-      <c r="B397" t="s">
-        <v>811</v>
-      </c>
-      <c r="C397" t="s">
-        <v>401</v>
-      </c>
-      <c r="D397" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4">
-      <c r="A398" t="s">
-        <v>813</v>
-      </c>
-      <c r="B398" t="s">
-        <v>814</v>
-      </c>
-      <c r="C398" t="s">
-        <v>401</v>
-      </c>
-      <c r="D398" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4">
-      <c r="A399" t="s">
-        <v>816</v>
-      </c>
-      <c r="B399" t="s">
-        <v>817</v>
-      </c>
-      <c r="C399" t="s">
-        <v>401</v>
-      </c>
-      <c r="D399" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4">
-      <c r="A400" t="s">
-        <v>819</v>
-      </c>
-      <c r="B400" t="s">
-        <v>820</v>
-      </c>
-      <c r="C400" t="s">
-        <v>401</v>
-      </c>
-      <c r="D400" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4">
-      <c r="A401" t="s">
-        <v>822</v>
-      </c>
-      <c r="B401" t="s">
-        <v>823</v>
-      </c>
-      <c r="C401" t="s">
-        <v>401</v>
-      </c>
-      <c r="D401" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4">
-      <c r="A402" t="s">
-        <v>825</v>
-      </c>
-      <c r="B402" t="s">
-        <v>826</v>
-      </c>
-      <c r="C402" t="s">
-        <v>401</v>
-      </c>
-      <c r="D402" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4">
-      <c r="A403" t="s">
-        <v>828</v>
-      </c>
-      <c r="B403" t="s">
-        <v>829</v>
-      </c>
-      <c r="C403" t="s">
-        <v>401</v>
-      </c>
-      <c r="D403" t="s">
-        <v>830</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>

--- a/revisedOsdv.xlsx
+++ b/revisedOsdv.xlsx
@@ -767,6 +767,12 @@
     <t>Is there documentation of complete Referral and Linkages of VMMC clients to Other services</t>
   </si>
   <si>
+    <t>twoWayComment</t>
+  </si>
+  <si>
+    <t>Overall Comment (Data Management , 2WT  and EHR)</t>
+  </si>
+  <si>
     <t>ehrUsage</t>
   </si>
   <si>
@@ -780,12 +786,6 @@
   </si>
   <si>
     <t>Enrollment Rate: Is the percentage of  clients enrolled into E'HR, 50% or higher?</t>
-  </si>
-  <si>
-    <t>twoWayComment</t>
-  </si>
-  <si>
-    <t>Overall Comment (Data Management , 2WT  and EHR)</t>
   </si>
   <si>
     <t>activeMobilisers</t>
@@ -3253,8 +3253,8 @@
   <sheetPr/>
   <dimension ref="A1:D394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B128" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -4941,21 +4941,21 @@
         <v>212</v>
       </c>
       <c r="D120" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
+        <v>248</v>
+      </c>
+      <c r="B121" t="s">
         <v>249</v>
-      </c>
-      <c r="B121" t="s">
-        <v>250</v>
       </c>
       <c r="C121" t="s">
         <v>212</v>
       </c>
       <c r="D121" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4969,7 +4969,7 @@
         <v>212</v>
       </c>
       <c r="D122" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="123" spans="1:4">

--- a/revisedOsdv.xlsx
+++ b/revisedOsdv.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="730">
   <si>
     <t>QuestionID</t>
   </si>
@@ -216,12 +216,6 @@
   </si>
   <si>
     <t>Indicate whether each type of kit is being used at this site?</t>
-  </si>
-  <si>
-    <t>otherKit</t>
-  </si>
-  <si>
-    <t>Specify the other  kit you selected ?</t>
   </si>
   <si>
     <t>suppliesAvailable</t>
@@ -2278,7 +2272,7 @@
     </font>
     <font>
       <sz val="10.5"/>
-      <color rgb="FF9CDCFE"/>
+      <color theme="1"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
@@ -3251,10 +3245,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D394"/>
+  <dimension ref="A1:D393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -3779,21 +3773,21 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
         <v>77</v>
-      </c>
-      <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3807,7 +3801,7 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3821,7 +3815,7 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3835,7 +3829,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3849,7 +3843,7 @@
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3863,7 +3857,7 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3877,7 +3871,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3891,7 +3885,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3905,7 +3899,7 @@
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3919,7 +3913,7 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3933,7 +3927,7 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3941,41 +3935,41 @@
         <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
         <v>102</v>
       </c>
-      <c r="B50" t="s">
-        <v>76</v>
-      </c>
       <c r="C50" t="s">
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
         <v>103</v>
-      </c>
-      <c r="B51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3989,7 +3983,7 @@
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4003,7 +3997,7 @@
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4017,7 +4011,7 @@
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -4031,7 +4025,7 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -4045,7 +4039,7 @@
         <v>6</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4059,7 +4053,7 @@
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4073,7 +4067,7 @@
         <v>6</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4087,7 +4081,7 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4101,7 +4095,7 @@
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4115,7 +4109,7 @@
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4129,7 +4123,7 @@
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4143,7 +4137,7 @@
         <v>6</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4157,7 +4151,7 @@
         <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4171,7 +4165,7 @@
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4185,7 +4179,7 @@
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4199,7 +4193,7 @@
         <v>6</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4207,41 +4201,41 @@
         <v>138</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" t="s">
         <v>140</v>
       </c>
-      <c r="B69" t="s">
-        <v>76</v>
-      </c>
       <c r="C69" t="s">
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
         <v>141</v>
-      </c>
-      <c r="B70" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4255,7 +4249,7 @@
         <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4269,7 +4263,7 @@
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4283,7 +4277,7 @@
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4297,7 +4291,7 @@
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4311,7 +4305,7 @@
         <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4325,7 +4319,7 @@
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4339,7 +4333,7 @@
         <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4353,7 +4347,7 @@
         <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4367,7 +4361,7 @@
         <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4381,7 +4375,7 @@
         <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4395,7 +4389,7 @@
         <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4409,7 +4403,7 @@
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4417,41 +4411,41 @@
         <v>168</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" t="s">
         <v>170</v>
       </c>
-      <c r="B84" t="s">
-        <v>76</v>
-      </c>
       <c r="C84" t="s">
         <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
         <v>171</v>
-      </c>
-      <c r="B85" t="s">
-        <v>172</v>
-      </c>
-      <c r="C85" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4465,7 +4459,7 @@
         <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4479,7 +4473,7 @@
         <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4493,7 +4487,7 @@
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4507,7 +4501,7 @@
         <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4521,7 +4515,7 @@
         <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4535,7 +4529,7 @@
         <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4549,7 +4543,7 @@
         <v>6</v>
       </c>
       <c r="D92" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4563,7 +4557,7 @@
         <v>6</v>
       </c>
       <c r="D93" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4577,7 +4571,7 @@
         <v>6</v>
       </c>
       <c r="D94" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4591,7 +4585,7 @@
         <v>6</v>
       </c>
       <c r="D95" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4605,7 +4599,7 @@
         <v>6</v>
       </c>
       <c r="D96" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4619,7 +4613,7 @@
         <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4633,7 +4627,7 @@
         <v>6</v>
       </c>
       <c r="D98" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4647,7 +4641,7 @@
         <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4661,7 +4655,7 @@
         <v>6</v>
       </c>
       <c r="D100" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4675,7 +4669,7 @@
         <v>6</v>
       </c>
       <c r="D101" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4689,7 +4683,7 @@
         <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4700,24 +4694,24 @@
         <v>209</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>210</v>
       </c>
       <c r="D103" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
+        <v>212</v>
+      </c>
+      <c r="B104" t="s">
+        <v>213</v>
+      </c>
+      <c r="C104" t="s">
         <v>210</v>
       </c>
-      <c r="B104" t="s">
+      <c r="D104" t="s">
         <v>211</v>
-      </c>
-      <c r="C104" t="s">
-        <v>212</v>
-      </c>
-      <c r="D104" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4728,10 +4722,10 @@
         <v>215</v>
       </c>
       <c r="C105" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D105" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4742,10 +4736,10 @@
         <v>217</v>
       </c>
       <c r="C106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D106" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4756,10 +4750,10 @@
         <v>219</v>
       </c>
       <c r="C107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D107" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4770,52 +4764,52 @@
         <v>221</v>
       </c>
       <c r="C108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" t="s">
+      <c r="A109" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B109" t="s">
         <v>223</v>
       </c>
       <c r="C109" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D109" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="2" t="s">
-        <v>224</v>
+      <c r="A110" t="s">
+        <v>225</v>
       </c>
       <c r="B110" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C110" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D110" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
+        <v>228</v>
+      </c>
+      <c r="B111" t="s">
+        <v>229</v>
+      </c>
+      <c r="C111" t="s">
+        <v>210</v>
+      </c>
+      <c r="D111" t="s">
         <v>227</v>
-      </c>
-      <c r="B111" t="s">
-        <v>228</v>
-      </c>
-      <c r="C111" t="s">
-        <v>212</v>
-      </c>
-      <c r="D111" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4826,10 +4820,10 @@
         <v>231</v>
       </c>
       <c r="C112" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D112" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4840,10 +4834,10 @@
         <v>233</v>
       </c>
       <c r="C113" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D113" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4854,10 +4848,10 @@
         <v>235</v>
       </c>
       <c r="C114" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D114" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4868,10 +4862,10 @@
         <v>237</v>
       </c>
       <c r="C115" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D115" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4882,10 +4876,10 @@
         <v>239</v>
       </c>
       <c r="C116" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4896,10 +4890,10 @@
         <v>241</v>
       </c>
       <c r="C117" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4910,10 +4904,10 @@
         <v>243</v>
       </c>
       <c r="C118" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4924,10 +4918,10 @@
         <v>245</v>
       </c>
       <c r="C119" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D119" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4938,24 +4932,24 @@
         <v>247</v>
       </c>
       <c r="C120" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D120" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
+        <v>249</v>
+      </c>
+      <c r="B121" t="s">
+        <v>250</v>
+      </c>
+      <c r="C121" t="s">
+        <v>210</v>
+      </c>
+      <c r="D121" t="s">
         <v>248</v>
-      </c>
-      <c r="B121" t="s">
-        <v>249</v>
-      </c>
-      <c r="C121" t="s">
-        <v>212</v>
-      </c>
-      <c r="D121" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4966,24 +4960,24 @@
         <v>252</v>
       </c>
       <c r="C122" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="D122" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
+        <v>255</v>
+      </c>
+      <c r="B123" t="s">
+        <v>256</v>
+      </c>
+      <c r="C123" t="s">
         <v>253</v>
       </c>
-      <c r="B123" t="s">
+      <c r="D123" t="s">
         <v>254</v>
-      </c>
-      <c r="C123" t="s">
-        <v>255</v>
-      </c>
-      <c r="D123" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4994,24 +4988,24 @@
         <v>258</v>
       </c>
       <c r="C124" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D124" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
+        <v>260</v>
+      </c>
+      <c r="B125" t="s">
+        <v>261</v>
+      </c>
+      <c r="C125" t="s">
+        <v>253</v>
+      </c>
+      <c r="D125" t="s">
         <v>259</v>
-      </c>
-      <c r="B125" t="s">
-        <v>260</v>
-      </c>
-      <c r="C125" t="s">
-        <v>255</v>
-      </c>
-      <c r="D125" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -5022,10 +5016,10 @@
         <v>263</v>
       </c>
       <c r="C126" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D126" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -5036,10 +5030,10 @@
         <v>265</v>
       </c>
       <c r="C127" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D127" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -5050,10 +5044,10 @@
         <v>267</v>
       </c>
       <c r="C128" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D128" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -5064,10 +5058,10 @@
         <v>269</v>
       </c>
       <c r="C129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D129" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -5078,10 +5072,10 @@
         <v>271</v>
       </c>
       <c r="C130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D130" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -5092,10 +5086,10 @@
         <v>273</v>
       </c>
       <c r="C131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D131" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5106,10 +5100,10 @@
         <v>275</v>
       </c>
       <c r="C132" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -5120,24 +5114,24 @@
         <v>277</v>
       </c>
       <c r="C133" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D133" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
+        <v>279</v>
+      </c>
+      <c r="B134" t="s">
+        <v>280</v>
+      </c>
+      <c r="C134" t="s">
+        <v>253</v>
+      </c>
+      <c r="D134" t="s">
         <v>278</v>
-      </c>
-      <c r="B134" t="s">
-        <v>279</v>
-      </c>
-      <c r="C134" t="s">
-        <v>255</v>
-      </c>
-      <c r="D134" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -5148,24 +5142,24 @@
         <v>282</v>
       </c>
       <c r="C135" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D135" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
+        <v>284</v>
+      </c>
+      <c r="B136" t="s">
+        <v>285</v>
+      </c>
+      <c r="C136" t="s">
+        <v>253</v>
+      </c>
+      <c r="D136" t="s">
         <v>283</v>
-      </c>
-      <c r="B136" t="s">
-        <v>284</v>
-      </c>
-      <c r="C136" t="s">
-        <v>255</v>
-      </c>
-      <c r="D136" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5176,24 +5170,24 @@
         <v>287</v>
       </c>
       <c r="C137" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D137" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
+        <v>289</v>
+      </c>
+      <c r="B138" t="s">
+        <v>290</v>
+      </c>
+      <c r="C138" t="s">
+        <v>253</v>
+      </c>
+      <c r="D138" t="s">
         <v>288</v>
-      </c>
-      <c r="B138" t="s">
-        <v>289</v>
-      </c>
-      <c r="C138" t="s">
-        <v>255</v>
-      </c>
-      <c r="D138" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5204,10 +5198,10 @@
         <v>292</v>
       </c>
       <c r="C139" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D139" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5218,24 +5212,24 @@
         <v>294</v>
       </c>
       <c r="C140" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D140" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
+        <v>296</v>
+      </c>
+      <c r="B141" t="s">
+        <v>297</v>
+      </c>
+      <c r="C141" t="s">
+        <v>253</v>
+      </c>
+      <c r="D141" t="s">
         <v>295</v>
-      </c>
-      <c r="B141" t="s">
-        <v>296</v>
-      </c>
-      <c r="C141" t="s">
-        <v>255</v>
-      </c>
-      <c r="D141" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5246,10 +5240,10 @@
         <v>299</v>
       </c>
       <c r="C142" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D142" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5260,10 +5254,10 @@
         <v>301</v>
       </c>
       <c r="C143" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D143" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5274,10 +5268,10 @@
         <v>303</v>
       </c>
       <c r="C144" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D144" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5288,24 +5282,24 @@
         <v>305</v>
       </c>
       <c r="C145" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
       <c r="D145" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
+        <v>307</v>
+      </c>
+      <c r="B146" t="s">
+        <v>308</v>
+      </c>
+      <c r="C146" t="s">
         <v>306</v>
       </c>
-      <c r="B146" t="s">
-        <v>307</v>
-      </c>
-      <c r="C146" t="s">
-        <v>308</v>
-      </c>
       <c r="D146" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5316,10 +5310,10 @@
         <v>310</v>
       </c>
       <c r="C147" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D147" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5330,10 +5324,10 @@
         <v>312</v>
       </c>
       <c r="C148" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D148" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5344,10 +5338,10 @@
         <v>314</v>
       </c>
       <c r="C149" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D149" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5358,10 +5352,10 @@
         <v>316</v>
       </c>
       <c r="C150" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D150" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -5372,10 +5366,10 @@
         <v>318</v>
       </c>
       <c r="C151" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D151" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5386,10 +5380,10 @@
         <v>320</v>
       </c>
       <c r="C152" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D152" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5400,10 +5394,10 @@
         <v>322</v>
       </c>
       <c r="C153" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D153" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5414,10 +5408,10 @@
         <v>324</v>
       </c>
       <c r="C154" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D154" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5428,10 +5422,10 @@
         <v>326</v>
       </c>
       <c r="C155" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D155" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5442,10 +5436,10 @@
         <v>328</v>
       </c>
       <c r="C156" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D156" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5456,10 +5450,10 @@
         <v>330</v>
       </c>
       <c r="C157" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D157" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5470,10 +5464,10 @@
         <v>332</v>
       </c>
       <c r="C158" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D158" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5484,10 +5478,10 @@
         <v>334</v>
       </c>
       <c r="C159" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D159" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5498,10 +5492,10 @@
         <v>336</v>
       </c>
       <c r="C160" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D160" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5512,10 +5506,10 @@
         <v>338</v>
       </c>
       <c r="C161" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D161" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5526,10 +5520,10 @@
         <v>340</v>
       </c>
       <c r="C162" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D162" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5540,10 +5534,10 @@
         <v>342</v>
       </c>
       <c r="C163" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D163" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5554,10 +5548,10 @@
         <v>344</v>
       </c>
       <c r="C164" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D164" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5568,10 +5562,10 @@
         <v>346</v>
       </c>
       <c r="C165" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D165" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5582,10 +5576,10 @@
         <v>348</v>
       </c>
       <c r="C166" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D166" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5596,10 +5590,10 @@
         <v>350</v>
       </c>
       <c r="C167" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D167" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5610,10 +5604,10 @@
         <v>352</v>
       </c>
       <c r="C168" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D168" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5624,10 +5618,10 @@
         <v>354</v>
       </c>
       <c r="C169" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D169" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5638,10 +5632,10 @@
         <v>356</v>
       </c>
       <c r="C170" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D170" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5652,10 +5646,10 @@
         <v>358</v>
       </c>
       <c r="C171" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D171" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5666,10 +5660,10 @@
         <v>360</v>
       </c>
       <c r="C172" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D172" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5680,10 +5674,10 @@
         <v>362</v>
       </c>
       <c r="C173" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D173" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5694,10 +5688,10 @@
         <v>364</v>
       </c>
       <c r="C174" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D174" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5708,10 +5702,10 @@
         <v>366</v>
       </c>
       <c r="C175" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D175" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5722,10 +5716,10 @@
         <v>368</v>
       </c>
       <c r="C176" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D176" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5736,10 +5730,10 @@
         <v>370</v>
       </c>
       <c r="C177" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D177" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5750,10 +5744,10 @@
         <v>372</v>
       </c>
       <c r="C178" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D178" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5764,10 +5758,10 @@
         <v>374</v>
       </c>
       <c r="C179" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D179" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5775,27 +5769,27 @@
         <v>375</v>
       </c>
       <c r="B180" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="C180" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D180" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
+        <v>376</v>
+      </c>
+      <c r="B181" t="s">
         <v>377</v>
       </c>
-      <c r="B181" t="s">
-        <v>356</v>
-      </c>
       <c r="C181" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D181" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5803,27 +5797,27 @@
         <v>378</v>
       </c>
       <c r="B182" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C182" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D182" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
+        <v>379</v>
+      </c>
+      <c r="B183" t="s">
         <v>380</v>
       </c>
-      <c r="B183" t="s">
-        <v>379</v>
-      </c>
       <c r="C183" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D183" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5834,24 +5828,24 @@
         <v>382</v>
       </c>
       <c r="C184" t="s">
-        <v>308</v>
+        <v>383</v>
       </c>
       <c r="D184" t="s">
-        <v>308</v>
+        <v>384</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B185" t="s">
+        <v>386</v>
+      </c>
+      <c r="C185" t="s">
+        <v>383</v>
+      </c>
+      <c r="D185" t="s">
         <v>384</v>
-      </c>
-      <c r="C185" t="s">
-        <v>385</v>
-      </c>
-      <c r="D185" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5862,10 +5856,10 @@
         <v>388</v>
       </c>
       <c r="C186" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D186" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5876,10 +5870,10 @@
         <v>390</v>
       </c>
       <c r="C187" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D187" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5890,10 +5884,10 @@
         <v>392</v>
       </c>
       <c r="C188" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D188" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5904,10 +5898,10 @@
         <v>394</v>
       </c>
       <c r="C189" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D189" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5918,10 +5912,10 @@
         <v>396</v>
       </c>
       <c r="C190" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D190" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5932,10 +5926,10 @@
         <v>398</v>
       </c>
       <c r="C191" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D191" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5946,10 +5940,10 @@
         <v>400</v>
       </c>
       <c r="C192" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D192" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5960,10 +5954,10 @@
         <v>402</v>
       </c>
       <c r="C193" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D193" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5974,10 +5968,10 @@
         <v>404</v>
       </c>
       <c r="C194" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D194" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5988,10 +5982,10 @@
         <v>406</v>
       </c>
       <c r="C195" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D195" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -6002,10 +5996,10 @@
         <v>408</v>
       </c>
       <c r="C196" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D196" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -6016,10 +6010,10 @@
         <v>410</v>
       </c>
       <c r="C197" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D197" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -6030,10 +6024,10 @@
         <v>412</v>
       </c>
       <c r="C198" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D198" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -6044,10 +6038,10 @@
         <v>414</v>
       </c>
       <c r="C199" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D199" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -6055,41 +6049,41 @@
         <v>415</v>
       </c>
       <c r="B200" t="s">
-        <v>416</v>
+        <v>74</v>
       </c>
       <c r="C200" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D200" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
+        <v>416</v>
+      </c>
+      <c r="B201" t="s">
         <v>417</v>
       </c>
-      <c r="B201" t="s">
-        <v>76</v>
-      </c>
       <c r="C201" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D201" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
+        <v>419</v>
+      </c>
+      <c r="B202" t="s">
+        <v>420</v>
+      </c>
+      <c r="C202" t="s">
+        <v>383</v>
+      </c>
+      <c r="D202" t="s">
         <v>418</v>
-      </c>
-      <c r="B202" t="s">
-        <v>419</v>
-      </c>
-      <c r="C202" t="s">
-        <v>385</v>
-      </c>
-      <c r="D202" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -6100,10 +6094,10 @@
         <v>422</v>
       </c>
       <c r="C203" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D203" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -6114,10 +6108,10 @@
         <v>424</v>
       </c>
       <c r="C204" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D204" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -6125,27 +6119,27 @@
         <v>425</v>
       </c>
       <c r="B205" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="C205" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D205" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
+        <v>426</v>
+      </c>
+      <c r="B206" t="s">
         <v>427</v>
       </c>
-      <c r="B206" t="s">
-        <v>406</v>
-      </c>
       <c r="C206" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D206" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6153,41 +6147,41 @@
         <v>428</v>
       </c>
       <c r="B207" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="C207" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D207" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B208" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C208" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D208" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
+        <v>430</v>
+      </c>
+      <c r="B209" t="s">
         <v>431</v>
       </c>
-      <c r="B209" t="s">
-        <v>400</v>
-      </c>
       <c r="C209" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D209" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6195,41 +6189,41 @@
         <v>432</v>
       </c>
       <c r="B210" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="C210" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D210" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B211" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C211" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D211" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
+        <v>434</v>
+      </c>
+      <c r="B212" t="s">
         <v>435</v>
       </c>
-      <c r="B212" t="s">
-        <v>392</v>
-      </c>
       <c r="C212" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D212" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -6240,10 +6234,10 @@
         <v>437</v>
       </c>
       <c r="C213" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D213" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -6254,10 +6248,10 @@
         <v>439</v>
       </c>
       <c r="C214" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D214" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6265,41 +6259,41 @@
         <v>440</v>
       </c>
       <c r="B215" t="s">
-        <v>441</v>
+        <v>388</v>
       </c>
       <c r="C215" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D215" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B216" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="C216" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D216" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
+        <v>442</v>
+      </c>
+      <c r="B217" t="s">
         <v>443</v>
       </c>
-      <c r="B217" t="s">
-        <v>414</v>
-      </c>
       <c r="C217" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D217" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6307,41 +6301,41 @@
         <v>444</v>
       </c>
       <c r="B218" t="s">
-        <v>445</v>
+        <v>74</v>
       </c>
       <c r="C218" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D218" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
+        <v>445</v>
+      </c>
+      <c r="B219" t="s">
         <v>446</v>
       </c>
-      <c r="B219" t="s">
-        <v>76</v>
-      </c>
       <c r="C219" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D219" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
+        <v>448</v>
+      </c>
+      <c r="B220" t="s">
+        <v>449</v>
+      </c>
+      <c r="C220" t="s">
+        <v>383</v>
+      </c>
+      <c r="D220" t="s">
         <v>447</v>
-      </c>
-      <c r="B220" t="s">
-        <v>448</v>
-      </c>
-      <c r="C220" t="s">
-        <v>385</v>
-      </c>
-      <c r="D220" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6352,10 +6346,10 @@
         <v>451</v>
       </c>
       <c r="C221" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D221" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6366,10 +6360,10 @@
         <v>453</v>
       </c>
       <c r="C222" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D222" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6380,10 +6374,10 @@
         <v>455</v>
       </c>
       <c r="C223" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D223" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6394,10 +6388,10 @@
         <v>457</v>
       </c>
       <c r="C224" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D224" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -6408,10 +6402,10 @@
         <v>459</v>
       </c>
       <c r="C225" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D225" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -6422,10 +6416,10 @@
         <v>461</v>
       </c>
       <c r="C226" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D226" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -6436,10 +6430,10 @@
         <v>463</v>
       </c>
       <c r="C227" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D227" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6450,10 +6444,10 @@
         <v>465</v>
       </c>
       <c r="C228" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D228" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6464,10 +6458,10 @@
         <v>467</v>
       </c>
       <c r="C229" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D229" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -6478,10 +6472,10 @@
         <v>469</v>
       </c>
       <c r="C230" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D230" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -6489,27 +6483,27 @@
         <v>470</v>
       </c>
       <c r="B231" t="s">
-        <v>471</v>
+        <v>74</v>
       </c>
       <c r="C231" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D231" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
+        <v>471</v>
+      </c>
+      <c r="B232" t="s">
+        <v>449</v>
+      </c>
+      <c r="C232" t="s">
+        <v>383</v>
+      </c>
+      <c r="D232" t="s">
         <v>472</v>
-      </c>
-      <c r="B232" t="s">
-        <v>76</v>
-      </c>
-      <c r="C232" t="s">
-        <v>385</v>
-      </c>
-      <c r="D232" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6520,164 +6514,164 @@
         <v>451</v>
       </c>
       <c r="C233" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D233" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B234" t="s">
         <v>453</v>
       </c>
       <c r="C234" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D234" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B235" t="s">
         <v>455</v>
       </c>
       <c r="C235" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D235" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B236" t="s">
         <v>457</v>
       </c>
       <c r="C236" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D236" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B237" t="s">
         <v>459</v>
       </c>
       <c r="C237" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D237" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B238" t="s">
         <v>461</v>
       </c>
       <c r="C238" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D238" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B239" t="s">
         <v>463</v>
       </c>
       <c r="C239" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D239" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B240" t="s">
         <v>465</v>
       </c>
       <c r="C240" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D240" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B241" t="s">
         <v>467</v>
       </c>
       <c r="C241" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D241" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B242" t="s">
         <v>469</v>
       </c>
       <c r="C242" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D242" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B243" t="s">
-        <v>471</v>
+        <v>74</v>
       </c>
       <c r="C243" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D243" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
+        <v>484</v>
+      </c>
+      <c r="B244" t="s">
+        <v>417</v>
+      </c>
+      <c r="C244" t="s">
+        <v>383</v>
+      </c>
+      <c r="D244" t="s">
         <v>485</v>
-      </c>
-      <c r="B244" t="s">
-        <v>76</v>
-      </c>
-      <c r="C244" t="s">
-        <v>385</v>
-      </c>
-      <c r="D244" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6685,13 +6679,13 @@
         <v>486</v>
       </c>
       <c r="B245" t="s">
-        <v>419</v>
+        <v>487</v>
       </c>
       <c r="C245" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D245" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6702,10 +6696,10 @@
         <v>489</v>
       </c>
       <c r="C246" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D246" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6716,10 +6710,10 @@
         <v>491</v>
       </c>
       <c r="C247" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D247" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6730,10 +6724,10 @@
         <v>493</v>
       </c>
       <c r="C248" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D248" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6744,10 +6738,10 @@
         <v>495</v>
       </c>
       <c r="C249" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D249" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6758,10 +6752,10 @@
         <v>497</v>
       </c>
       <c r="C250" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D250" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6772,10 +6766,10 @@
         <v>499</v>
       </c>
       <c r="C251" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D251" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6786,10 +6780,10 @@
         <v>501</v>
       </c>
       <c r="C252" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D252" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6800,10 +6794,10 @@
         <v>503</v>
       </c>
       <c r="C253" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D253" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6814,10 +6808,10 @@
         <v>505</v>
       </c>
       <c r="C254" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D254" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6828,10 +6822,10 @@
         <v>507</v>
       </c>
       <c r="C255" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D255" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6842,10 +6836,10 @@
         <v>509</v>
       </c>
       <c r="C256" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D256" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6856,10 +6850,10 @@
         <v>511</v>
       </c>
       <c r="C257" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D257" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6870,10 +6864,10 @@
         <v>513</v>
       </c>
       <c r="C258" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D258" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6884,10 +6878,10 @@
         <v>515</v>
       </c>
       <c r="C259" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D259" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6898,10 +6892,10 @@
         <v>517</v>
       </c>
       <c r="C260" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D260" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6912,10 +6906,10 @@
         <v>519</v>
       </c>
       <c r="C261" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D261" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6926,10 +6920,10 @@
         <v>521</v>
       </c>
       <c r="C262" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D262" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6940,10 +6934,10 @@
         <v>523</v>
       </c>
       <c r="C263" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D263" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6954,10 +6948,10 @@
         <v>525</v>
       </c>
       <c r="C264" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D264" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6968,10 +6962,10 @@
         <v>527</v>
       </c>
       <c r="C265" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D265" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6982,10 +6976,10 @@
         <v>529</v>
       </c>
       <c r="C266" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D266" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -6996,10 +6990,10 @@
         <v>531</v>
       </c>
       <c r="C267" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D267" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -7010,10 +7004,10 @@
         <v>533</v>
       </c>
       <c r="C268" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D268" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -7024,10 +7018,10 @@
         <v>535</v>
       </c>
       <c r="C269" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D269" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -7038,10 +7032,10 @@
         <v>537</v>
       </c>
       <c r="C270" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D270" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -7052,10 +7046,10 @@
         <v>539</v>
       </c>
       <c r="C271" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D271" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -7066,10 +7060,10 @@
         <v>541</v>
       </c>
       <c r="C272" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D272" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -7080,10 +7074,10 @@
         <v>543</v>
       </c>
       <c r="C273" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D273" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -7094,10 +7088,10 @@
         <v>545</v>
       </c>
       <c r="C274" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D274" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -7108,10 +7102,10 @@
         <v>547</v>
       </c>
       <c r="C275" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D275" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7122,10 +7116,10 @@
         <v>549</v>
       </c>
       <c r="C276" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D276" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -7136,10 +7130,10 @@
         <v>551</v>
       </c>
       <c r="C277" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D277" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -7150,10 +7144,10 @@
         <v>553</v>
       </c>
       <c r="C278" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D278" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -7164,10 +7158,10 @@
         <v>555</v>
       </c>
       <c r="C279" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D279" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -7178,10 +7172,10 @@
         <v>557</v>
       </c>
       <c r="C280" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D280" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7192,10 +7186,10 @@
         <v>559</v>
       </c>
       <c r="C281" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D281" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -7206,10 +7200,10 @@
         <v>561</v>
       </c>
       <c r="C282" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D282" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -7220,10 +7214,10 @@
         <v>563</v>
       </c>
       <c r="C283" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D283" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -7234,10 +7228,10 @@
         <v>565</v>
       </c>
       <c r="C284" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D284" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7248,10 +7242,10 @@
         <v>567</v>
       </c>
       <c r="C285" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D285" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -7262,10 +7256,10 @@
         <v>569</v>
       </c>
       <c r="C286" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D286" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -7276,10 +7270,10 @@
         <v>571</v>
       </c>
       <c r="C287" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D287" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7290,10 +7284,10 @@
         <v>573</v>
       </c>
       <c r="C288" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D288" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -7304,10 +7298,10 @@
         <v>575</v>
       </c>
       <c r="C289" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D289" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -7318,10 +7312,10 @@
         <v>577</v>
       </c>
       <c r="C290" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D290" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7332,10 +7326,10 @@
         <v>579</v>
       </c>
       <c r="C291" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D291" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -7346,10 +7340,10 @@
         <v>581</v>
       </c>
       <c r="C292" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D292" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7360,10 +7354,10 @@
         <v>583</v>
       </c>
       <c r="C293" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D293" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -7374,10 +7368,10 @@
         <v>585</v>
       </c>
       <c r="C294" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D294" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -7388,10 +7382,10 @@
         <v>587</v>
       </c>
       <c r="C295" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D295" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7402,10 +7396,10 @@
         <v>589</v>
       </c>
       <c r="C296" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D296" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -7416,10 +7410,10 @@
         <v>591</v>
       </c>
       <c r="C297" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D297" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -7430,10 +7424,10 @@
         <v>593</v>
       </c>
       <c r="C298" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D298" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7444,10 +7438,10 @@
         <v>595</v>
       </c>
       <c r="C299" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D299" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -7458,10 +7452,10 @@
         <v>597</v>
       </c>
       <c r="C300" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D300" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7472,10 +7466,10 @@
         <v>599</v>
       </c>
       <c r="C301" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D301" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -7486,10 +7480,10 @@
         <v>601</v>
       </c>
       <c r="C302" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D302" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -7500,10 +7494,10 @@
         <v>603</v>
       </c>
       <c r="C303" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D303" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -7514,10 +7508,10 @@
         <v>605</v>
       </c>
       <c r="C304" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D304" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -7528,10 +7522,10 @@
         <v>607</v>
       </c>
       <c r="C305" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D305" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7542,10 +7536,10 @@
         <v>609</v>
       </c>
       <c r="C306" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D306" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -7556,10 +7550,10 @@
         <v>611</v>
       </c>
       <c r="C307" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D307" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7567,69 +7561,69 @@
         <v>612</v>
       </c>
       <c r="B308" t="s">
-        <v>613</v>
+        <v>515</v>
       </c>
       <c r="C308" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D308" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B309" t="s">
-        <v>517</v>
+        <v>74</v>
       </c>
       <c r="C309" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D309" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" t="s">
+        <v>614</v>
+      </c>
+      <c r="B310" t="s">
         <v>615</v>
       </c>
-      <c r="B310" t="s">
-        <v>76</v>
-      </c>
       <c r="C310" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D310" t="s">
-        <v>487</v>
+        <v>616</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" t="s">
+        <v>617</v>
+      </c>
+      <c r="B311" t="s">
+        <v>417</v>
+      </c>
+      <c r="C311" t="s">
+        <v>383</v>
+      </c>
+      <c r="D311" t="s">
         <v>616</v>
-      </c>
-      <c r="B311" t="s">
-        <v>617</v>
-      </c>
-      <c r="C311" t="s">
-        <v>385</v>
-      </c>
-      <c r="D311" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" t="s">
+        <v>618</v>
+      </c>
+      <c r="B312" t="s">
         <v>619</v>
       </c>
-      <c r="B312" t="s">
-        <v>419</v>
-      </c>
       <c r="C312" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D312" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -7640,10 +7634,10 @@
         <v>621</v>
       </c>
       <c r="C313" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D313" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7654,10 +7648,10 @@
         <v>623</v>
       </c>
       <c r="C314" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D314" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7668,10 +7662,10 @@
         <v>625</v>
       </c>
       <c r="C315" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D315" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7682,10 +7676,10 @@
         <v>627</v>
       </c>
       <c r="C316" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D316" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7696,10 +7690,10 @@
         <v>629</v>
       </c>
       <c r="C317" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D317" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7710,10 +7704,10 @@
         <v>631</v>
       </c>
       <c r="C318" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D318" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -7724,10 +7718,10 @@
         <v>633</v>
       </c>
       <c r="C319" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D319" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -7738,10 +7732,10 @@
         <v>635</v>
       </c>
       <c r="C320" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D320" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7752,10 +7746,10 @@
         <v>637</v>
       </c>
       <c r="C321" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D321" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7766,10 +7760,10 @@
         <v>639</v>
       </c>
       <c r="C322" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D322" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -7777,55 +7771,55 @@
         <v>640</v>
       </c>
       <c r="B323" t="s">
-        <v>641</v>
+        <v>607</v>
       </c>
       <c r="C323" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D323" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B324" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C324" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D324" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B325" t="s">
-        <v>613</v>
+        <v>515</v>
       </c>
       <c r="C325" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D325" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" t="s">
+        <v>643</v>
+      </c>
+      <c r="B326" t="s">
         <v>644</v>
       </c>
-      <c r="B326" t="s">
-        <v>517</v>
-      </c>
       <c r="C326" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D326" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -7836,10 +7830,10 @@
         <v>646</v>
       </c>
       <c r="C327" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D327" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7850,10 +7844,10 @@
         <v>648</v>
       </c>
       <c r="C328" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D328" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7864,10 +7858,10 @@
         <v>650</v>
       </c>
       <c r="C329" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D329" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7878,10 +7872,10 @@
         <v>652</v>
       </c>
       <c r="C330" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D330" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -7889,699 +7883,699 @@
         <v>653</v>
       </c>
       <c r="B331" t="s">
-        <v>654</v>
+        <v>527</v>
       </c>
       <c r="C331" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D331" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B332" t="s">
         <v>529</v>
       </c>
       <c r="C332" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D332" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B333" t="s">
         <v>531</v>
       </c>
       <c r="C333" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D333" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B334" t="s">
         <v>533</v>
       </c>
       <c r="C334" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D334" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B335" t="s">
         <v>535</v>
       </c>
       <c r="C335" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D335" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B336" t="s">
         <v>537</v>
       </c>
       <c r="C336" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D336" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B337" t="s">
         <v>539</v>
       </c>
       <c r="C337" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D337" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B338" t="s">
         <v>541</v>
       </c>
       <c r="C338" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D338" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B339" t="s">
         <v>543</v>
       </c>
       <c r="C339" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D339" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B340" t="s">
         <v>545</v>
       </c>
       <c r="C340" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D340" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B341" t="s">
         <v>547</v>
       </c>
       <c r="C341" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D341" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B342" t="s">
         <v>549</v>
       </c>
       <c r="C342" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D342" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B343" t="s">
         <v>551</v>
       </c>
       <c r="C343" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D343" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B344" t="s">
         <v>553</v>
       </c>
       <c r="C344" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D344" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B345" t="s">
         <v>555</v>
       </c>
       <c r="C345" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D345" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B346" t="s">
         <v>557</v>
       </c>
       <c r="C346" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D346" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B347" t="s">
         <v>559</v>
       </c>
       <c r="C347" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D347" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B348" t="s">
         <v>561</v>
       </c>
       <c r="C348" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D348" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B349" t="s">
         <v>563</v>
       </c>
       <c r="C349" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D349" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B350" t="s">
         <v>565</v>
       </c>
       <c r="C350" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D350" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B351" t="s">
         <v>567</v>
       </c>
       <c r="C351" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D351" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B352" t="s">
         <v>569</v>
       </c>
       <c r="C352" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D352" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B353" t="s">
         <v>571</v>
       </c>
       <c r="C353" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D353" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B354" t="s">
         <v>573</v>
       </c>
       <c r="C354" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D354" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B355" t="s">
         <v>575</v>
       </c>
       <c r="C355" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D355" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B356" t="s">
         <v>577</v>
       </c>
       <c r="C356" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D356" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B357" t="s">
         <v>579</v>
       </c>
       <c r="C357" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D357" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B358" t="s">
         <v>581</v>
       </c>
       <c r="C358" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D358" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B359" t="s">
         <v>583</v>
       </c>
       <c r="C359" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D359" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B360" t="s">
         <v>585</v>
       </c>
       <c r="C360" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D360" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B361" t="s">
         <v>587</v>
       </c>
       <c r="C361" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D361" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B362" t="s">
         <v>589</v>
       </c>
       <c r="C362" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D362" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B363" t="s">
         <v>591</v>
       </c>
       <c r="C363" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D363" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B364" t="s">
         <v>593</v>
       </c>
       <c r="C364" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D364" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B365" t="s">
         <v>595</v>
       </c>
       <c r="C365" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D365" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B366" t="s">
         <v>597</v>
       </c>
       <c r="C366" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D366" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B367" t="s">
         <v>599</v>
       </c>
       <c r="C367" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D367" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B368" t="s">
         <v>601</v>
       </c>
       <c r="C368" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D368" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B369" t="s">
         <v>603</v>
       </c>
       <c r="C369" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D369" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B370" t="s">
         <v>605</v>
       </c>
       <c r="C370" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D370" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B371" t="s">
         <v>607</v>
       </c>
       <c r="C371" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D371" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B372" t="s">
         <v>609</v>
       </c>
       <c r="C372" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D372" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B373" t="s">
         <v>611</v>
       </c>
       <c r="C373" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D373" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B374" t="s">
-        <v>613</v>
+        <v>515</v>
       </c>
       <c r="C374" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D374" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B375" t="s">
-        <v>517</v>
+        <v>644</v>
       </c>
       <c r="C375" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D375" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B376" t="s">
         <v>646</v>
       </c>
       <c r="C376" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D376" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B377" t="s">
         <v>648</v>
       </c>
       <c r="C377" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D377" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B378" t="s">
         <v>650</v>
       </c>
       <c r="C378" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D378" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B379" t="s">
         <v>652</v>
       </c>
       <c r="C379" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D379" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" t="s">
+        <v>702</v>
+      </c>
+      <c r="B380" t="s">
         <v>703</v>
       </c>
-      <c r="B380" t="s">
-        <v>654</v>
-      </c>
       <c r="C380" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D380" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -8592,10 +8586,10 @@
         <v>705</v>
       </c>
       <c r="C381" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D381" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -8606,10 +8600,10 @@
         <v>707</v>
       </c>
       <c r="C382" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D382" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -8620,10 +8614,10 @@
         <v>709</v>
       </c>
       <c r="C383" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D383" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -8634,10 +8628,10 @@
         <v>711</v>
       </c>
       <c r="C384" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D384" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -8648,10 +8642,10 @@
         <v>713</v>
       </c>
       <c r="C385" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D385" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -8662,10 +8656,10 @@
         <v>715</v>
       </c>
       <c r="C386" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D386" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -8676,10 +8670,10 @@
         <v>717</v>
       </c>
       <c r="C387" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D387" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -8690,10 +8684,10 @@
         <v>719</v>
       </c>
       <c r="C388" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D388" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -8704,10 +8698,10 @@
         <v>721</v>
       </c>
       <c r="C389" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D389" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -8718,10 +8712,10 @@
         <v>723</v>
       </c>
       <c r="C390" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D390" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -8732,10 +8726,10 @@
         <v>725</v>
       </c>
       <c r="C391" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D391" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -8746,10 +8740,10 @@
         <v>727</v>
       </c>
       <c r="C392" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D392" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -8760,24 +8754,10 @@
         <v>729</v>
       </c>
       <c r="C393" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D393" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4">
-      <c r="A394" t="s">
-        <v>730</v>
-      </c>
-      <c r="B394" t="s">
-        <v>731</v>
-      </c>
-      <c r="C394" t="s">
-        <v>385</v>
-      </c>
-      <c r="D394" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
